--- a/ET/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/ET/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\RouterTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC470956-B4CB-4A69-8FC6-28509B4A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -71,14 +65,34 @@
   </si>
   <si>
     <t>路由区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录服</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZoneType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET1000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,28 +477,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
+    <col min="4" max="7" width="21" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="3:7">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="13.5">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -492,13 +506,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" ht="13.5">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -506,13 +523,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" ht="13.5">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -520,44 +540,67 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" s="1" customFormat="1">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7">
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
